--- a/CORTES DE CAJA/2025/11 NOVIEMBRE/LISTA DE LAS VENTAS SEMANA 48 DE NOVIEMBRE-25.xlsx
+++ b/CORTES DE CAJA/2025/11 NOVIEMBRE/LISTA DE LAS VENTAS SEMANA 48 DE NOVIEMBRE-25.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD12E96-23F5-4830-AD08-926790B0B28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF122EB-25F3-4BEF-89E1-8290F9386AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1164,27 +1164,6 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="7" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1224,8 +1203,26 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1235,6 +1232,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1828,23 +1828,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
@@ -1857,14 +1857,14 @@
         <f>SUM(Tabla1[Importa])</f>
         <v>1882.5</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
     </row>
     <row r="4" spans="2:18" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
@@ -1895,19 +1895,19 @@
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>19</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C5">
         <f>IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
@@ -1929,21 +1929,21 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>142.5</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="25"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
+      <c r="K5" s="38"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C6">
         <f t="shared" ref="C6:C36" si="0">IF(ISNUMBER(E6), IF(ISNUMBER(C5), C5+1, 1), "")</f>
@@ -1965,19 +1965,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>162</v>
       </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -1996,19 +1996,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>130</v>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -2027,19 +2027,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>300</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -2058,19 +2058,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>123</v>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -2089,19 +2089,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>123</v>
       </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -2120,19 +2120,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>36</v>
       </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -2151,19 +2151,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>10</v>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -2185,19 +2185,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>157.5</v>
       </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -2219,19 +2219,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>103</v>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -2253,17 +2253,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>81</v>
       </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -2285,17 +2285,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>38</v>
       </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -2314,17 +2314,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>10</v>
       </c>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -2346,17 +2346,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>54</v>
       </c>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -2375,17 +2375,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>30</v>
       </c>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
@@ -2404,17 +2404,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>30</v>
       </c>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -2433,17 +2433,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>166</v>
       </c>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -2465,17 +2465,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>51.5</v>
       </c>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
@@ -2508,14 +2508,14 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M24" s="19" t="s">
+      <c r="M24" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="str">
@@ -2530,12 +2530,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="str">
@@ -2550,18 +2550,18 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G26))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M26" s="38" t="s">
+      <c r="M26" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="N26" s="38"/>
+      <c r="N26" s="31"/>
       <c r="O26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="P26" s="38" t="s">
+      <c r="P26" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="str">
@@ -2576,16 +2576,16 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G27))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M27" s="26" t="s">
+      <c r="M27" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="N27" s="27"/>
-      <c r="O27" s="30">
+      <c r="N27" s="20"/>
+      <c r="O27" s="23">
         <v>100</v>
       </c>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="34"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="27"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="str">
@@ -2600,12 +2600,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G28))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M28" s="28"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="37"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="30"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -2620,16 +2620,16 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G29))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M29" s="26" t="s">
+      <c r="M29" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="N29" s="27"/>
-      <c r="O29" s="30">
+      <c r="N29" s="20"/>
+      <c r="O29" s="23">
         <v>2300</v>
       </c>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="34"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="27"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -2644,12 +2644,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G30))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M30" s="28"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="37"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="30"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -2664,12 +2664,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G31))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M31" s="26"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="34"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="27"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -2684,12 +2684,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G32))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M32" s="28"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="37"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="30"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -2704,12 +2704,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G33))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M33" s="26"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="34"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="27"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -2724,12 +2724,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G34))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M34" s="28"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="37"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="30"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -2744,12 +2744,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G35))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M35" s="26"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="32"/>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="34"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="27"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -2764,12 +2764,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G36))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M36" s="28"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="36"/>
-      <c r="R36" s="37"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="30"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -2784,12 +2784,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G37))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M37" s="26"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="32"/>
-      <c r="Q37" s="33"/>
-      <c r="R37" s="34"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="27"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -2804,12 +2804,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G38))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M38" s="28"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="35"/>
-      <c r="Q38" s="36"/>
-      <c r="R38" s="37"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="30"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -2824,12 +2824,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G39))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M39" s="26"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="32"/>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="34"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="27"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -2844,12 +2844,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G40))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M40" s="28"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="31"/>
-      <c r="P40" s="35"/>
-      <c r="Q40" s="36"/>
-      <c r="R40" s="37"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="29"/>
+      <c r="R40" s="30"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -2864,12 +2864,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G41))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M41" s="26"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="32"/>
-      <c r="Q41" s="33"/>
-      <c r="R41" s="34"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="27"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -2884,12 +2884,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G42))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M42" s="28"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="31"/>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="36"/>
-      <c r="R42" s="37"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="24"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="30"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -2904,12 +2904,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G43))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M43" s="26"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="32"/>
-      <c r="Q43" s="33"/>
-      <c r="R43" s="34"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="23"/>
+      <c r="P43" s="25"/>
+      <c r="Q43" s="26"/>
+      <c r="R43" s="27"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -2924,12 +2924,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G44))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M44" s="28"/>
-      <c r="N44" s="29"/>
-      <c r="O44" s="31"/>
-      <c r="P44" s="35"/>
-      <c r="Q44" s="36"/>
-      <c r="R44" s="37"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="28"/>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="30"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -2944,12 +2944,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G45))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M45" s="26"/>
-      <c r="N45" s="27"/>
-      <c r="O45" s="30"/>
-      <c r="P45" s="32"/>
-      <c r="Q45" s="33"/>
-      <c r="R45" s="34"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="23"/>
+      <c r="P45" s="25"/>
+      <c r="Q45" s="26"/>
+      <c r="R45" s="27"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B46" s="18" t="str">
@@ -2964,12 +2964,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G46))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M46" s="28"/>
-      <c r="N46" s="29"/>
-      <c r="O46" s="31"/>
-      <c r="P46" s="35"/>
-      <c r="Q46" s="36"/>
-      <c r="R46" s="37"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="24"/>
+      <c r="P46" s="28"/>
+      <c r="Q46" s="29"/>
+      <c r="R46" s="30"/>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="str">
@@ -2984,12 +2984,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G47))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M47" s="26"/>
-      <c r="N47" s="27"/>
-      <c r="O47" s="30"/>
-      <c r="P47" s="32"/>
-      <c r="Q47" s="33"/>
-      <c r="R47" s="34"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="23"/>
+      <c r="P47" s="25"/>
+      <c r="Q47" s="26"/>
+      <c r="R47" s="27"/>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B48" s="18" t="str">
@@ -3004,12 +3004,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G48))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M48" s="28"/>
-      <c r="N48" s="29"/>
-      <c r="O48" s="31"/>
-      <c r="P48" s="35"/>
-      <c r="Q48" s="36"/>
-      <c r="R48" s="37"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="28"/>
+      <c r="Q48" s="29"/>
+      <c r="R48" s="30"/>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B49" s="18" t="str">
@@ -3024,12 +3024,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G49))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M49" s="26"/>
-      <c r="N49" s="27"/>
-      <c r="O49" s="30"/>
-      <c r="P49" s="32"/>
-      <c r="Q49" s="33"/>
-      <c r="R49" s="34"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="23"/>
+      <c r="P49" s="25"/>
+      <c r="Q49" s="26"/>
+      <c r="R49" s="27"/>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50" s="18" t="str">
@@ -3044,12 +3044,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G50))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M50" s="28"/>
-      <c r="N50" s="29"/>
-      <c r="O50" s="31"/>
-      <c r="P50" s="35"/>
-      <c r="Q50" s="36"/>
-      <c r="R50" s="37"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="24"/>
+      <c r="P50" s="28"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="30"/>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51" s="18" t="str">
@@ -3064,12 +3064,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G51))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M51" s="26"/>
-      <c r="N51" s="27"/>
-      <c r="O51" s="30"/>
-      <c r="P51" s="32"/>
-      <c r="Q51" s="33"/>
-      <c r="R51" s="34"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="23"/>
+      <c r="P51" s="25"/>
+      <c r="Q51" s="26"/>
+      <c r="R51" s="27"/>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52" s="18" t="str">
@@ -3084,12 +3084,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G52))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M52" s="28"/>
-      <c r="N52" s="29"/>
-      <c r="O52" s="31"/>
-      <c r="P52" s="35"/>
-      <c r="Q52" s="36"/>
-      <c r="R52" s="37"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="22"/>
+      <c r="O52" s="24"/>
+      <c r="P52" s="28"/>
+      <c r="Q52" s="29"/>
+      <c r="R52" s="30"/>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B53" s="18" t="str">
@@ -3808,33 +3808,19 @@
   </sheetData>
   <autoFilter ref="B4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="48">
-    <mergeCell ref="M49:N50"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="P49:R50"/>
-    <mergeCell ref="M51:N52"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="P51:R52"/>
-    <mergeCell ref="M45:N46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="P45:R46"/>
-    <mergeCell ref="M47:N48"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="P47:R48"/>
-    <mergeCell ref="P31:R32"/>
-    <mergeCell ref="P33:R34"/>
-    <mergeCell ref="P35:R36"/>
-    <mergeCell ref="P37:R38"/>
-    <mergeCell ref="P39:R40"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="M31:N32"/>
-    <mergeCell ref="M33:N34"/>
-    <mergeCell ref="M35:N36"/>
-    <mergeCell ref="M37:N38"/>
-    <mergeCell ref="M39:N40"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="J5:K14"/>
+    <mergeCell ref="M41:N42"/>
+    <mergeCell ref="M43:N44"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="P41:R42"/>
+    <mergeCell ref="P43:R44"/>
     <mergeCell ref="P26:R26"/>
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="M27:N28"/>
@@ -3843,19 +3829,33 @@
     <mergeCell ref="O29:O30"/>
     <mergeCell ref="P27:R28"/>
     <mergeCell ref="P29:R30"/>
-    <mergeCell ref="M41:N42"/>
-    <mergeCell ref="M43:N44"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="P41:R42"/>
-    <mergeCell ref="P43:R44"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="J5:K14"/>
+    <mergeCell ref="M31:N32"/>
+    <mergeCell ref="M33:N34"/>
+    <mergeCell ref="M35:N36"/>
+    <mergeCell ref="M37:N38"/>
+    <mergeCell ref="M39:N40"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="P31:R32"/>
+    <mergeCell ref="P33:R34"/>
+    <mergeCell ref="P35:R36"/>
+    <mergeCell ref="P37:R38"/>
+    <mergeCell ref="P39:R40"/>
+    <mergeCell ref="M45:N46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="P45:R46"/>
+    <mergeCell ref="M47:N48"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="P47:R48"/>
+    <mergeCell ref="M49:N50"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="P49:R50"/>
+    <mergeCell ref="M51:N52"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="P51:R52"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
     <cfRule type="expression" dxfId="13" priority="1">
@@ -3899,23 +3899,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
@@ -3928,14 +3928,14 @@
         <f>SUM(Tabla110[Importa])</f>
         <v>4223</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
@@ -3966,19 +3966,19 @@
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>29</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla110[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C68" si="0">IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
@@ -3997,21 +3997,21 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>690</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="25"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
+      <c r="K5" s="38"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -4033,19 +4033,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>22.5</v>
       </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -4067,19 +4067,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>38</v>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -4098,19 +4098,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>220</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -4129,19 +4129,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>220</v>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -4163,19 +4163,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>27</v>
       </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -4197,19 +4197,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>248.5</v>
       </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -4231,19 +4231,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>43.5</v>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -4265,19 +4265,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>32.5</v>
       </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -4296,19 +4296,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>80</v>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -4330,17 +4330,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>304</v>
       </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -4359,17 +4359,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>110</v>
       </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -4388,17 +4388,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>36</v>
       </c>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -4420,17 +4420,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>135</v>
       </c>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -4452,17 +4452,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>81</v>
       </c>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
@@ -4484,17 +4484,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>36</v>
       </c>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -4513,17 +4513,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>30</v>
       </c>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -4542,17 +4542,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>690</v>
       </c>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
@@ -4597,14 +4597,14 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>294.5</v>
       </c>
-      <c r="M24" s="19" t="s">
+      <c r="M24" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="str">
@@ -4628,12 +4628,12 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>40</v>
       </c>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="str">
@@ -4663,12 +4663,12 @@
       <c r="N26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="38" t="s">
+      <c r="O26" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
     </row>
     <row r="27" spans="2:18" ht="60" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="str">
@@ -4698,10 +4698,10 @@
       <c r="N27" s="15">
         <v>580</v>
       </c>
-      <c r="O27" s="40"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="42"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="41"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="str">
@@ -4727,10 +4727,10 @@
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="42"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="41"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -4759,10 +4759,10 @@
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="42"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="41"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -4791,10 +4791,10 @@
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="42"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="41"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -4823,10 +4823,10 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="42"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="41"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -4855,10 +4855,10 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="42"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="41"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -4887,10 +4887,10 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="42"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="41"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -4907,10 +4907,10 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="42"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="41"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -4927,10 +4927,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="42"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="41"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -4947,10 +4947,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="42"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="41"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -4967,10 +4967,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="42"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="41"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -4987,10 +4987,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="42"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="41"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -5007,10 +5007,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="42"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="41"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -5027,10 +5027,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="42"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="41"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -5047,10 +5047,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="42"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="41"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -5067,10 +5067,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="42"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="41"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -5087,10 +5087,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="42"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="41"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -5107,10 +5107,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="41"/>
-      <c r="Q44" s="41"/>
-      <c r="R44" s="42"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="41"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -5940,32 +5940,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
     <cfRule type="expression" dxfId="11" priority="1">
@@ -6008,23 +6008,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
@@ -6037,14 +6037,14 @@
         <f>SUM(Tabla111[Importa])</f>
         <v>1934</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
@@ -6075,19 +6075,19 @@
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>22</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla111[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C5">
         <f>IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
@@ -6106,21 +6106,21 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>123</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="25"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
+      <c r="K5" s="38"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C6">
         <f>IF(ISNUMBER(E6), IF(ISNUMBER(C5), C5+1, 1), "")</f>
@@ -6139,19 +6139,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>220</v>
       </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C7">
         <f>IF(ISNUMBER(E7), IF(ISNUMBER(C6), C6+1, 1), "")</f>
@@ -6173,19 +6173,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>27</v>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C8">
         <f t="shared" ref="C8:C68" si="0">IF(ISNUMBER(E8), IF(ISNUMBER(C7), C7+1, 1), "")</f>
@@ -6204,19 +6204,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>10</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -6238,19 +6238,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>13.5</v>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -6272,19 +6272,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>18</v>
       </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -6306,19 +6306,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>135</v>
       </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -6337,19 +6337,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>60</v>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -6371,19 +6371,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>51.5</v>
       </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -6405,19 +6405,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>207</v>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -6439,17 +6439,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>108</v>
       </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -6468,17 +6468,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>20</v>
       </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -6500,17 +6500,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>31.5</v>
       </c>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -6532,17 +6532,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>198</v>
       </c>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -6564,17 +6564,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>142.5</v>
       </c>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
@@ -6596,17 +6596,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>51.5</v>
       </c>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -6628,17 +6628,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>79.5</v>
       </c>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -6657,17 +6657,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>67</v>
       </c>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
@@ -6715,14 +6715,14 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>135</v>
       </c>
-      <c r="M24" s="19" t="s">
+      <c r="M24" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="str">
@@ -6749,12 +6749,12 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>67.5</v>
       </c>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="str">
@@ -6787,12 +6787,12 @@
       <c r="N26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="38" t="s">
+      <c r="O26" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="str">
@@ -6813,10 +6813,10 @@
       <c r="N27" s="15">
         <v>71</v>
       </c>
-      <c r="O27" s="40"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="42"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="41"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="str">
@@ -6833,10 +6833,10 @@
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="42"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="41"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -6853,10 +6853,10 @@
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="42"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="41"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -6873,10 +6873,10 @@
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="42"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="41"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -6893,10 +6893,10 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="42"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="41"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -6913,10 +6913,10 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="42"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="41"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -6933,10 +6933,10 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="42"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="41"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -6953,10 +6953,10 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="42"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="41"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -6973,10 +6973,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="42"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="41"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -6993,10 +6993,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="42"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="41"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -7013,10 +7013,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="42"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="41"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -7033,10 +7033,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="42"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="41"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -7053,10 +7053,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="42"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="41"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -7073,10 +7073,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="42"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="41"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -7093,10 +7093,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="42"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="41"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -7113,10 +7113,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="42"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="41"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -7133,10 +7133,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="42"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="41"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -7153,10 +7153,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="41"/>
-      <c r="Q44" s="41"/>
-      <c r="R44" s="42"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="41"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -7986,32 +7986,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
     <cfRule type="expression" dxfId="9" priority="1">
@@ -8054,23 +8054,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
@@ -8083,14 +8083,14 @@
         <f>SUM(Tabla112[Importa])</f>
         <v>1546.5</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
@@ -8121,17 +8121,17 @@
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>11</v>
       </c>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla112[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C68" si="0">IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
@@ -8153,21 +8153,21 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>170.5</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="25"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
+      <c r="K5" s="38"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -8189,19 +8189,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>121.5</v>
       </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -8223,19 +8223,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>121.5</v>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -8254,19 +8254,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>45</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -8288,19 +8288,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>108</v>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -8322,19 +8322,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>27</v>
       </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -8353,19 +8353,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>52</v>
       </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -8387,19 +8387,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>495</v>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -8421,19 +8421,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>85.5</v>
       </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -8455,19 +8455,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>153</v>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -8489,17 +8489,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>167.5</v>
       </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -8509,17 +8509,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -8529,17 +8529,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -8549,17 +8549,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -8569,17 +8569,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -8589,17 +8589,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -8609,17 +8609,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
@@ -8629,17 +8629,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
@@ -8663,14 +8663,14 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M24" s="19" t="s">
+      <c r="M24" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="str">
@@ -8685,12 +8685,12 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="str">
@@ -8711,12 +8711,12 @@
       <c r="N26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="38" t="s">
+      <c r="O26" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
     </row>
     <row r="27" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="str">
@@ -8733,10 +8733,10 @@
       </c>
       <c r="M27" s="13"/>
       <c r="N27" s="15"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="42"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="41"/>
     </row>
     <row r="28" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="str">
@@ -8753,10 +8753,10 @@
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="42"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="41"/>
     </row>
     <row r="29" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -8773,10 +8773,10 @@
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="42"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="41"/>
     </row>
     <row r="30" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -8793,10 +8793,10 @@
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="42"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="41"/>
     </row>
     <row r="31" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -8813,10 +8813,10 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="42"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="41"/>
     </row>
     <row r="32" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -8833,10 +8833,10 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="42"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="41"/>
     </row>
     <row r="33" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -8853,10 +8853,10 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="42"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="41"/>
     </row>
     <row r="34" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -8873,10 +8873,10 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="42"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="41"/>
     </row>
     <row r="35" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -8893,10 +8893,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="42"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="41"/>
     </row>
     <row r="36" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -8913,10 +8913,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="42"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="41"/>
     </row>
     <row r="37" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -8933,10 +8933,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="42"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="41"/>
     </row>
     <row r="38" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -8953,10 +8953,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="42"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="41"/>
     </row>
     <row r="39" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -8973,10 +8973,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="42"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="41"/>
     </row>
     <row r="40" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -8993,10 +8993,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="42"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="41"/>
     </row>
     <row r="41" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -9013,10 +9013,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="42"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="41"/>
     </row>
     <row r="42" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -9033,10 +9033,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="42"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="41"/>
     </row>
     <row r="43" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -9053,10 +9053,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="42"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="41"/>
     </row>
     <row r="44" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -9073,10 +9073,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="41"/>
-      <c r="Q44" s="41"/>
-      <c r="R44" s="42"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="41"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -9906,32 +9906,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
     <cfRule type="expression" dxfId="7" priority="1">
@@ -9975,23 +9975,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
@@ -10004,14 +10004,14 @@
         <f>SUM(Tabla113[Importa])</f>
         <v>3021</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
@@ -10042,19 +10042,19 @@
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>14</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla113[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C68" si="0">IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
@@ -10073,21 +10073,21 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>90</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="25"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
+      <c r="K5" s="38"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -10106,19 +10106,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>560</v>
       </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -10137,19 +10137,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>30</v>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -10168,19 +10168,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>423</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -10202,19 +10202,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>142.5</v>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -10236,19 +10236,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>51.5</v>
       </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -10270,19 +10270,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>65</v>
       </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -10301,19 +10301,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>430</v>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -10335,19 +10335,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>659</v>
       </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -10369,19 +10369,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>18</v>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -10400,17 +10400,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>30</v>
       </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -10432,17 +10432,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>261</v>
       </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -10464,17 +10464,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>18</v>
       </c>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -10496,17 +10496,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>243</v>
       </c>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -10516,17 +10516,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -10536,17 +10536,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -10556,17 +10556,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
@@ -10576,17 +10576,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
@@ -10610,14 +10610,14 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M24" s="19" t="s">
+      <c r="M24" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="str">
@@ -10632,12 +10632,12 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="str">
@@ -10658,12 +10658,12 @@
       <c r="N26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="38" t="s">
+      <c r="O26" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
     </row>
     <row r="27" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="str">
@@ -10684,12 +10684,12 @@
       <c r="N27" s="15">
         <v>100</v>
       </c>
-      <c r="O27" s="40" t="s">
+      <c r="O27" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="42"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="41"/>
     </row>
     <row r="28" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="str">
@@ -10710,12 +10710,12 @@
       <c r="N28" s="15">
         <v>2300</v>
       </c>
-      <c r="O28" s="40" t="s">
+      <c r="O28" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="42"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="41"/>
     </row>
     <row r="29" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -10736,12 +10736,12 @@
       <c r="N29" s="15">
         <v>580</v>
       </c>
-      <c r="O29" s="40" t="s">
+      <c r="O29" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="42"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="41"/>
     </row>
     <row r="30" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -10762,12 +10762,12 @@
       <c r="N30" s="15">
         <v>71</v>
       </c>
-      <c r="O30" s="40" t="s">
+      <c r="O30" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="42"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="41"/>
     </row>
     <row r="31" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -10788,12 +10788,12 @@
       <c r="N31" s="15">
         <v>7656</v>
       </c>
-      <c r="O31" s="40" t="s">
+      <c r="O31" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="42"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="41"/>
     </row>
     <row r="32" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -10814,12 +10814,12 @@
       <c r="N32" s="15">
         <v>1500</v>
       </c>
-      <c r="O32" s="40" t="s">
+      <c r="O32" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="42"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="41"/>
     </row>
     <row r="33" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -10840,12 +10840,12 @@
       <c r="N33" s="15">
         <v>12207</v>
       </c>
-      <c r="O33" s="40" t="s">
+      <c r="O33" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="42"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="41"/>
     </row>
     <row r="34" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -10862,10 +10862,10 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="42"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="41"/>
     </row>
     <row r="35" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -10882,10 +10882,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="42"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="41"/>
     </row>
     <row r="36" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -10902,10 +10902,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="42"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="41"/>
     </row>
     <row r="37" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -10922,10 +10922,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="42"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="41"/>
     </row>
     <row r="38" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -10942,10 +10942,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="42"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="41"/>
     </row>
     <row r="39" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -10962,10 +10962,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="42"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="41"/>
     </row>
     <row r="40" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -10982,10 +10982,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="42"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="41"/>
     </row>
     <row r="41" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -11002,10 +11002,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="42"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="41"/>
     </row>
     <row r="42" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -11022,10 +11022,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="42"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="41"/>
     </row>
     <row r="43" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -11042,10 +11042,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="42"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="41"/>
     </row>
     <row r="44" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -11062,10 +11062,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="41"/>
-      <c r="Q44" s="41"/>
-      <c r="R44" s="42"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="41"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -11895,32 +11895,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
     <cfRule type="expression" dxfId="5" priority="1">
@@ -11963,23 +11963,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
@@ -11992,14 +11992,14 @@
         <f>SUM(Tabla114[Importa])</f>
         <v>3106.5</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
@@ -12030,19 +12030,19 @@
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>20</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla114[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C68" si="0">IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
@@ -12061,21 +12061,21 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>350</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="25"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
+      <c r="K5" s="38"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -12094,19 +12094,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>25</v>
       </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -12125,19 +12125,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>85</v>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -12156,19 +12156,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>75</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -12190,19 +12190,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>25.5</v>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -12224,19 +12224,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>580.5</v>
       </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -12258,19 +12258,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>155</v>
       </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -12289,19 +12289,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>90</v>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -12320,19 +12320,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>115</v>
       </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -12351,19 +12351,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>480</v>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -12382,17 +12382,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>60</v>
       </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -12411,17 +12411,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>50</v>
       </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -12440,17 +12440,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>375</v>
       </c>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -12472,17 +12472,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>50.5</v>
       </c>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -12501,17 +12501,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>51</v>
       </c>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
@@ -12530,17 +12530,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>99</v>
       </c>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -12559,17 +12559,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>123</v>
       </c>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -12588,17 +12588,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>52</v>
       </c>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
@@ -12640,14 +12640,14 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>115</v>
       </c>
-      <c r="M24" s="19" t="s">
+      <c r="M24" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="str">
@@ -12662,12 +12662,12 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="str">
@@ -12688,12 +12688,12 @@
       <c r="N26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="38" t="s">
+      <c r="O26" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
     </row>
     <row r="27" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="str">
@@ -12710,10 +12710,10 @@
       </c>
       <c r="M27" s="13"/>
       <c r="N27" s="15"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="42"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="41"/>
     </row>
     <row r="28" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="str">
@@ -12730,10 +12730,10 @@
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="42"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="41"/>
     </row>
     <row r="29" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -12750,10 +12750,10 @@
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="42"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="41"/>
     </row>
     <row r="30" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -12770,10 +12770,10 @@
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="42"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="41"/>
     </row>
     <row r="31" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -12790,10 +12790,10 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="42"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="41"/>
     </row>
     <row r="32" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -12810,10 +12810,10 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="42"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="41"/>
     </row>
     <row r="33" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -12830,10 +12830,10 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="42"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="41"/>
     </row>
     <row r="34" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -12850,10 +12850,10 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="42"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="41"/>
     </row>
     <row r="35" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -12870,10 +12870,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="42"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="41"/>
     </row>
     <row r="36" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -12890,10 +12890,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="42"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="41"/>
     </row>
     <row r="37" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -12910,10 +12910,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="42"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="41"/>
     </row>
     <row r="38" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -12930,10 +12930,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="42"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="41"/>
     </row>
     <row r="39" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -12950,10 +12950,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="42"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="41"/>
     </row>
     <row r="40" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -12970,10 +12970,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="42"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="41"/>
     </row>
     <row r="41" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -12990,10 +12990,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="42"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="41"/>
     </row>
     <row r="42" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -13010,10 +13010,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="42"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="41"/>
     </row>
     <row r="43" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -13030,10 +13030,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="42"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="41"/>
     </row>
     <row r="44" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -13050,10 +13050,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="41"/>
-      <c r="Q44" s="41"/>
-      <c r="R44" s="42"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="41"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -13883,32 +13883,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
     <cfRule type="expression" dxfId="3" priority="1">
@@ -13951,23 +13951,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
@@ -13980,14 +13980,14 @@
         <f>SUM(Tabla115[Importa])</f>
         <v>0</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
@@ -14018,12 +14018,12 @@
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="str">
@@ -14038,21 +14038,21 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="25"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
+      <c r="K5" s="38"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -14062,19 +14062,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -14084,19 +14084,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -14106,19 +14106,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -14128,19 +14128,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -14150,19 +14150,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -14172,19 +14172,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -14194,19 +14194,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -14216,19 +14216,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -14238,19 +14238,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -14260,17 +14260,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -14280,17 +14280,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -14300,17 +14300,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -14320,17 +14320,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -14340,17 +14340,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -14360,17 +14360,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -14380,17 +14380,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
@@ -14400,17 +14400,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45990.797106828701</v>
+        <v>45992.660406597221</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
@@ -14434,14 +14434,14 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M24" s="19" t="s">
+      <c r="M24" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="str">
@@ -14456,12 +14456,12 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="str">
@@ -14482,12 +14482,12 @@
       <c r="N26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="38" t="s">
+      <c r="O26" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
     </row>
     <row r="27" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="str">
@@ -14504,10 +14504,10 @@
       </c>
       <c r="M27" s="13"/>
       <c r="N27" s="15"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="42"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="41"/>
     </row>
     <row r="28" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="str">
@@ -14524,10 +14524,10 @@
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="42"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="41"/>
     </row>
     <row r="29" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -14544,10 +14544,10 @@
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="42"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="41"/>
     </row>
     <row r="30" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -14564,10 +14564,10 @@
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="42"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="41"/>
     </row>
     <row r="31" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -14584,10 +14584,10 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="42"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="41"/>
     </row>
     <row r="32" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -14604,10 +14604,10 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="42"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="41"/>
     </row>
     <row r="33" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -14624,10 +14624,10 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="42"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="41"/>
     </row>
     <row r="34" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -14644,10 +14644,10 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="42"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="41"/>
     </row>
     <row r="35" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -14664,10 +14664,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="42"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="41"/>
     </row>
     <row r="36" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -14684,10 +14684,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="42"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="41"/>
     </row>
     <row r="37" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -14704,10 +14704,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="42"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="41"/>
     </row>
     <row r="38" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -14724,10 +14724,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="42"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="41"/>
     </row>
     <row r="39" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -14744,10 +14744,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="42"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="41"/>
     </row>
     <row r="40" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -14764,10 +14764,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="42"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="41"/>
     </row>
     <row r="41" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -14784,10 +14784,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="42"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="41"/>
     </row>
     <row r="42" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -14804,10 +14804,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="42"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="41"/>
     </row>
     <row r="43" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -14824,10 +14824,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="42"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="41"/>
     </row>
     <row r="44" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -14844,10 +14844,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="41"/>
-      <c r="Q44" s="41"/>
-      <c r="R44" s="42"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="41"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -15677,32 +15677,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
     <cfRule type="expression" dxfId="1" priority="1">
